--- a/BasdatB10_Manual.xlsx
+++ b/BasdatB10_Manual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sang Agung Raditya P\Documents\BasDat\Basdat-B10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="863" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452" tabRatio="863" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TERM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="416">
   <si>
     <t>Tahun</t>
   </si>
@@ -1195,6 +1195,96 @@
   </si>
   <si>
     <t>FH</t>
+  </si>
+  <si>
+    <t>Sistem Operasi Masa Depan</t>
+  </si>
+  <si>
+    <t>Android vs Apple</t>
+  </si>
+  <si>
+    <t>Kelemahan Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminator </t>
+  </si>
+  <si>
+    <t>Himpunan kosong</t>
+  </si>
+  <si>
+    <t>Modulo -e</t>
+  </si>
+  <si>
+    <t>Tingkat tidur mahasiswa</t>
+  </si>
+  <si>
+    <t>Penjagalan sapi di madiun</t>
+  </si>
+  <si>
+    <t>Pembunuhan Jessica</t>
+  </si>
+  <si>
+    <t>Kejanggalan Mirna</t>
+  </si>
+  <si>
+    <t>Rasa kopi vietnam</t>
+  </si>
+  <si>
+    <t>Sianida tidak bisa melelehkan lambung</t>
+  </si>
+  <si>
+    <t>Makanan terenak didunia</t>
+  </si>
+  <si>
+    <t>Rendang vs Sate</t>
+  </si>
+  <si>
+    <t>Sharknado itu benar?</t>
+  </si>
+  <si>
+    <t>Mama minta pulsa</t>
+  </si>
+  <si>
+    <t>Papa minta saham</t>
+  </si>
+  <si>
+    <t>Anak minta jabatan gubernur</t>
+  </si>
+  <si>
+    <t>Yahudi dibalik perang dunia 3</t>
+  </si>
+  <si>
+    <t>Semua salah Amerika</t>
+  </si>
+  <si>
+    <t>Freemason menguasai dunia</t>
+  </si>
+  <si>
+    <t>Konspirasi liberal</t>
+  </si>
+  <si>
+    <t>Legalitas FEB di UIAW</t>
+  </si>
+  <si>
+    <t>Pengaruh kehilangan pulpen dengan kematian</t>
+  </si>
+  <si>
+    <t>Lycantulul vs werewolf</t>
+  </si>
+  <si>
+    <t>Europa Universalis lebih bagus dibanding Civilization</t>
+  </si>
+  <si>
+    <t>Konspirasi Gabe menguasai game</t>
+  </si>
+  <si>
+    <t>Piratebay pindah ke Indonesia</t>
+  </si>
+  <si>
+    <t>Pengaruh RPL dengan PPL</t>
+  </si>
+  <si>
+    <t>Kebergunaan Mata Kuliah di Fasilkom</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1292,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1267,7 +1357,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1592,9 +1682,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
@@ -1610,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2016</v>
       </c>
@@ -1618,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2016</v>
       </c>
@@ -1637,7 +1727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1651,13 +1741,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
@@ -1665,7 +1755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1101</v>
       </c>
@@ -1673,7 +1763,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1202</v>
       </c>
@@ -1681,7 +1771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1103</v>
       </c>
@@ -1689,7 +1779,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>1301</v>
       </c>
@@ -1697,7 +1787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1203</v>
       </c>
@@ -1705,7 +1795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2401</v>
       </c>
@@ -1713,7 +1803,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2302</v>
       </c>
@@ -1721,7 +1811,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>2501</v>
       </c>
@@ -1729,7 +1819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2604</v>
       </c>
@@ -1737,7 +1827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2201</v>
       </c>
@@ -1745,7 +1835,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>3309</v>
       </c>
@@ -1753,7 +1843,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>3102</v>
       </c>
@@ -1761,7 +1851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>3205</v>
       </c>
@@ -1769,7 +1859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>3202</v>
       </c>
@@ -1777,7 +1867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>3301</v>
       </c>
@@ -1796,7 +1886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1808,7 +1898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1820,7 +1910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1830,21 +1920,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1960,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1006348908</v>
       </c>
@@ -1896,7 +1986,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1006493867</v>
       </c>
@@ -1922,7 +2012,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1006900890</v>
       </c>
@@ -1948,7 +2038,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1106384953</v>
       </c>
@@ -1974,7 +2064,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1106389934</v>
       </c>
@@ -2000,7 +2090,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1106482954</v>
       </c>
@@ -2026,7 +2116,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1106586720</v>
       </c>
@@ -2052,7 +2142,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1206292534</v>
       </c>
@@ -2078,7 +2168,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1206382759</v>
       </c>
@@ -2104,7 +2194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1206384498</v>
       </c>
@@ -2130,7 +2220,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1206473097</v>
       </c>
@@ -2156,7 +2246,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1206488890</v>
       </c>
@@ -2182,7 +2272,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1306183746</v>
       </c>
@@ -2208,7 +2298,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1306234333</v>
       </c>
@@ -2234,7 +2324,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1306244445</v>
       </c>
@@ -2260,7 +2350,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1306382950</v>
       </c>
@@ -2286,7 +2376,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1306395827</v>
       </c>
@@ -2312,7 +2402,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1306482390</v>
       </c>
@@ -2338,7 +2428,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1306482940</v>
       </c>
@@ -2364,7 +2454,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1306492043</v>
       </c>
@@ -2390,7 +2480,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1306573819</v>
       </c>
@@ -2416,7 +2506,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1406123128</v>
       </c>
@@ -2442,7 +2532,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1406245123</v>
       </c>
@@ -2468,7 +2558,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1406344452</v>
       </c>
@@ -2494,7 +2584,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1406354336</v>
       </c>
@@ -2520,7 +2610,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1406454433</v>
       </c>
@@ -2546,7 +2636,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1406472842</v>
       </c>
@@ -2572,7 +2662,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1406482910</v>
       </c>
@@ -2598,7 +2688,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1406571844</v>
       </c>
@@ -2624,7 +2714,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1406572843</v>
       </c>
@@ -2650,7 +2740,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1406583212</v>
       </c>
@@ -2676,7 +2766,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1406583920</v>
       </c>
@@ -2702,7 +2792,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1406583922</v>
       </c>
@@ -2728,7 +2818,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1406588900</v>
       </c>
@@ -2754,7 +2844,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1406899087</v>
       </c>
@@ -2780,7 +2870,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1506342433</v>
       </c>
@@ -2806,7 +2896,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1506382753</v>
       </c>
@@ -2832,7 +2922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1506392243</v>
       </c>
@@ -2858,7 +2948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1506392855</v>
       </c>
@@ -2884,7 +2974,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1506495372</v>
       </c>
@@ -3004,22 +3094,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="30.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>201612001</v>
       </c>
@@ -3061,10 +3152,25 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>201612001</v>
+        <v>201612002</v>
       </c>
       <c r="C5">
         <v>1006493867</v>
@@ -3075,10 +3181,25 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>201612001</v>
+        <v>201612003</v>
       </c>
       <c r="C6">
         <v>1006900890</v>
@@ -3089,10 +3210,25 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>32016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>201612001</v>
+        <v>201612004</v>
       </c>
       <c r="C7">
         <v>1106384953</v>
@@ -3103,10 +3239,25 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>201612001</v>
+        <v>201612005</v>
       </c>
       <c r="C8">
         <v>1106389934</v>
@@ -3117,10 +3268,25 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>52016</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>201612001</v>
+        <v>201612006</v>
       </c>
       <c r="C9">
         <v>1106482954</v>
@@ -3131,10 +3297,25 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>22016</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>201612001</v>
+        <v>201612007</v>
       </c>
       <c r="C10">
         <v>1106586720</v>
@@ -3145,10 +3326,25 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>82016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>201612001</v>
+        <v>201612008</v>
       </c>
       <c r="C11">
         <v>1206292534</v>
@@ -3159,10 +3355,25 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>92016</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>201612001</v>
+        <v>201612009</v>
       </c>
       <c r="C12">
         <v>1206382759</v>
@@ -3173,10 +3384,25 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>201612001</v>
+        <v>201612010</v>
       </c>
       <c r="C13">
         <v>1206384498</v>
@@ -3187,10 +3413,25 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>82016</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>201612001</v>
+        <v>201612011</v>
       </c>
       <c r="C14">
         <v>1206473097</v>
@@ -3201,10 +3442,25 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>52016</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>201612001</v>
+        <v>201612012</v>
       </c>
       <c r="C15">
         <v>1206488890</v>
@@ -3215,10 +3471,25 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>201612001</v>
+        <v>201612013</v>
       </c>
       <c r="C16">
         <v>1306183746</v>
@@ -3229,10 +3500,25 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>201612001</v>
+        <v>201612014</v>
       </c>
       <c r="C17">
         <v>1306234333</v>
@@ -3243,10 +3529,25 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>201612001</v>
+        <v>201612015</v>
       </c>
       <c r="C18">
         <v>1306244445</v>
@@ -3257,10 +3558,25 @@
       <c r="E18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>201612001</v>
+        <v>201612016</v>
       </c>
       <c r="C19">
         <v>1306382950</v>
@@ -3271,10 +3587,25 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>22016</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>201612001</v>
+        <v>201612017</v>
       </c>
       <c r="C20">
         <v>1306395827</v>
@@ -3285,10 +3616,25 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>201612001</v>
+        <v>201612018</v>
       </c>
       <c r="C21">
         <v>1306482390</v>
@@ -3299,10 +3645,25 @@
       <c r="E21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>201612001</v>
+        <v>201612019</v>
       </c>
       <c r="C22">
         <v>1306482940</v>
@@ -3313,10 +3674,25 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>52016</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>201612001</v>
+        <v>201612020</v>
       </c>
       <c r="C23">
         <v>1306492043</v>
@@ -3327,10 +3703,25 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>82016</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>201612001</v>
+        <v>201612021</v>
       </c>
       <c r="C24">
         <v>1306573819</v>
@@ -3341,10 +3732,25 @@
       <c r="E24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>22016</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>201612001</v>
+        <v>201612022</v>
       </c>
       <c r="C25">
         <v>1206292534</v>
@@ -3355,10 +3761,25 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>201612001</v>
+        <v>201612023</v>
       </c>
       <c r="C26">
         <v>1206382759</v>
@@ -3369,10 +3790,25 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>201612001</v>
+        <v>201612024</v>
       </c>
       <c r="C27">
         <v>1206384498</v>
@@ -3383,10 +3819,25 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>201612001</v>
+        <v>201612025</v>
       </c>
       <c r="C28">
         <v>1306234333</v>
@@ -3397,10 +3848,25 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>201612001</v>
+        <v>201612026</v>
       </c>
       <c r="C29">
         <v>1306244445</v>
@@ -3411,10 +3877,25 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>201612001</v>
+        <v>201612027</v>
       </c>
       <c r="C30">
         <v>1306482390</v>
@@ -3425,10 +3906,25 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>52016</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>201612001</v>
+        <v>201612028</v>
       </c>
       <c r="C31">
         <v>1406472842</v>
@@ -3439,10 +3935,25 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>201612001</v>
+        <v>201612029</v>
       </c>
       <c r="C32">
         <v>1406482910</v>
@@ -3453,10 +3964,25 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>82016</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>201612001</v>
+        <v>201612030</v>
       </c>
       <c r="C33">
         <v>1406571844</v>
@@ -3466,6 +3992,21 @@
       </c>
       <c r="E33" s="1">
         <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>72016</v>
       </c>
     </row>
   </sheetData>
@@ -3478,15 +4019,15 @@
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +4035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>12016</v>
       </c>
@@ -3502,7 +4043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>22016</v>
       </c>
@@ -3510,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>32016</v>
       </c>
@@ -3518,7 +4059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>42016</v>
       </c>
@@ -3526,7 +4067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>52016</v>
       </c>
@@ -3534,7 +4075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>62016</v>
       </c>
@@ -3542,7 +4083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>72016</v>
       </c>
@@ -3550,7 +4091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>82016</v>
       </c>
@@ -3558,7 +4099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>92016</v>
       </c>
@@ -3579,12 +4120,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +4133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>14012016</v>
       </c>
@@ -3600,7 +4141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>14022016</v>
       </c>
@@ -3608,7 +4149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>14032016</v>
       </c>
@@ -3616,7 +4157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>15012016</v>
       </c>
@@ -3624,7 +4165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>15022016</v>
       </c>
@@ -3632,7 +4173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>16012016</v>
       </c>
@@ -3653,15 +4194,15 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -3681,7 +4222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2014011201021940</v>
       </c>
@@ -3701,7 +4242,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2013031125041950</v>
       </c>
@@ -3721,7 +4262,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2014020526061930</v>
       </c>
@@ -3741,7 +4282,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2014010622121970</v>
       </c>
@@ -3761,7 +4302,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>2014020823111960</v>
       </c>
@@ -3781,7 +4322,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2015030111051980</v>
       </c>
@@ -3801,7 +4342,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>2016030412121970</v>
       </c>
@@ -3821,7 +4362,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>2011021303051960</v>
       </c>
@@ -3841,7 +4382,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>2012010530051950</v>
       </c>
@@ -3861,7 +4402,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>2011030509091980</v>
       </c>
@@ -3881,7 +4422,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>2010020521111960</v>
       </c>
@@ -3901,7 +4442,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>2009010526061930</v>
       </c>
@@ -3921,7 +4462,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>2008020531081940</v>
       </c>
@@ -3941,7 +4482,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>2005030502021930</v>
       </c>
@@ -3961,7 +4502,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>2014030513041960</v>
       </c>
@@ -3981,7 +4522,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>2015010517041950</v>
       </c>
@@ -4001,7 +4542,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>2007010524071980</v>
       </c>
@@ -4021,7 +4562,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>2016030525091980</v>
       </c>
@@ -4041,7 +4582,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>2015020529101970</v>
       </c>
@@ -4061,7 +4602,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>2011010501111950</v>
       </c>
@@ -4115,7 +4656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4127,7 +4668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4139,7 +4680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BasdatB10_Manual.xlsx
+++ b/BasdatB10_Manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452" tabRatio="863" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452" tabRatio="895" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TERM" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <sheet name="JADWAL_SIDANG" sheetId="13" r:id="rId13"/>
     <sheet name="BERKAS" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">RUANGAN!$A$1:$AS$66</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="543">
   <si>
     <t>Tahun</t>
   </si>
@@ -1285,6 +1288,387 @@
   </si>
   <si>
     <t>Kebergunaan Mata Kuliah di Fasilkom</t>
+  </si>
+  <si>
+    <t>IdJadwal</t>
+  </si>
+  <si>
+    <t>TanggalMulai</t>
+  </si>
+  <si>
+    <t>TanggalSelesai</t>
+  </si>
+  <si>
+    <t>Alasan</t>
+  </si>
+  <si>
+    <t>Repetisi</t>
+  </si>
+  <si>
+    <t>NIPDosen</t>
+  </si>
+  <si>
+    <t>Anjing makan PR</t>
+  </si>
+  <si>
+    <t>Kejebak demo</t>
+  </si>
+  <si>
+    <t>Buyut meninggal</t>
+  </si>
+  <si>
+    <t>Flu</t>
+  </si>
+  <si>
+    <t>seminar</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernikahan </t>
+  </si>
+  <si>
+    <t>Pernikahan Anak</t>
+  </si>
+  <si>
+    <t>Cuti</t>
+  </si>
+  <si>
+    <t>Cucu meninggal</t>
+  </si>
+  <si>
+    <t>Banjir</t>
+  </si>
+  <si>
+    <t>Gempa</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>Taifun</t>
+  </si>
+  <si>
+    <t>ElNino</t>
+  </si>
+  <si>
+    <t>Hujan Badai</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>Pengobatan Kanker</t>
+  </si>
+  <si>
+    <t>Pamali</t>
+  </si>
+  <si>
+    <t>Sidang Cerai</t>
+  </si>
+  <si>
+    <t>Sekali</t>
+  </si>
+  <si>
+    <t>Mingguan</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam Mulai</t>
+  </si>
+  <si>
+    <t>Jam Selesai</t>
+  </si>
+  <si>
+    <t>IDBerkas</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Terapi Batu Giok</t>
+  </si>
+  <si>
+    <t>Efek Rumah Kaca</t>
+  </si>
+  <si>
+    <t> Akuntansi Perhitungan Pajak </t>
+  </si>
+  <si>
+    <t>Algoritma Enkripsi Rijndae</t>
+  </si>
+  <si>
+    <t>Text To Speech</t>
+  </si>
+  <si>
+    <t>Komputerisasi Data Nilai Uji Kompetensi</t>
+  </si>
+  <si>
+    <t>Membangun Jaringan PC Cloning</t>
+  </si>
+  <si>
+    <t>Perangkat Lunak Pengelolaan Data Counter </t>
+  </si>
+  <si>
+    <t>Pengaruh Kecerdasan Emosional</t>
+  </si>
+  <si>
+    <t>Perbandingan Hasil Belajar</t>
+  </si>
+  <si>
+    <t>Penerapan Pembelajaran Kontekstual</t>
+  </si>
+  <si>
+    <t>Keefektifan Penggunaan Model Pembelajaran Kooperatif </t>
+  </si>
+  <si>
+    <t>Pembelajaran Kooperatif Tipe Jigsaw</t>
+  </si>
+  <si>
+    <t>Aktivitas Peserta Didik Pada Pembelajaran Operasi Hitung</t>
+  </si>
+  <si>
+    <t>Meningkatkan Pencapaian Kompetensi Dasar</t>
+  </si>
+  <si>
+    <t>Keefektifan Model Pembelajaran Kooperatif Stad</t>
+  </si>
+  <si>
+    <t>Upaya Peningkatan Hasil Belajar </t>
+  </si>
+  <si>
+    <t>Keefektifan Penggunaan Lembar Kerja Terstruktur</t>
+  </si>
+  <si>
+    <t>Akuntansi Pertanggung Jawaban </t>
+  </si>
+  <si>
+    <t>Efisiensi Penggunaan Modal Kerja </t>
+  </si>
+  <si>
+    <t>Kegiatan Usaha Pada Perusahaan Konveksi </t>
+  </si>
+  <si>
+    <t>Penadapatan Petani Cabai</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor Yang Mempengaruhi Alokasi KUK</t>
+  </si>
+  <si>
+    <t>Faktor Yang Mempengaruhi Inflasi</t>
+  </si>
+  <si>
+    <t>Pengaruh Diferensiasi Produk Terhadap Kepuasan </t>
+  </si>
+  <si>
+    <t>Perkembangan Jumlah Kredit </t>
+  </si>
+  <si>
+    <t>Permintaan Deposito Berjangka Rupiah </t>
+  </si>
+  <si>
+    <t> Perbedaan Kinerja Keuangan</t>
+  </si>
+  <si>
+    <t>Struktur Aktiva</t>
+  </si>
+  <si>
+    <t>Bagi Hasil Bank Syariah</t>
+  </si>
+  <si>
+    <t>Evaluasi Sistem Dan Prosedur Pembelian</t>
+  </si>
+  <si>
+    <t>Faktor Permintaan Timah Putih Indonesia</t>
+  </si>
+  <si>
+    <t>Faktor Pembelian di Cofee Shop</t>
+  </si>
+  <si>
+    <t>A Study In English Varieties Used By Vendors</t>
+  </si>
+  <si>
+    <t>An Analysis Of The Main Character</t>
+  </si>
+  <si>
+    <t>A Study On Teaching English Using Games</t>
+  </si>
+  <si>
+    <t>An Error Analysis On The Use Of Simple Present Tense</t>
+  </si>
+  <si>
+    <t>Analisis Makna Implisit</t>
+  </si>
+  <si>
+    <t>Effectivity Of Contextual Instruction With Cooperative Approach </t>
+  </si>
+  <si>
+    <t>Effects Of Pre Questioning On The Reading Comprehension </t>
+  </si>
+  <si>
+    <t>Kurangnya perbendaharaan kosa kata siswa </t>
+  </si>
+  <si>
+    <t>Student’s Learning Achievement</t>
+  </si>
+  <si>
+    <t>Teaching Reading Comprehension Using Communicative Approach</t>
+  </si>
+  <si>
+    <t>The Use Of Brochures And Pamphlets</t>
+  </si>
+  <si>
+    <t> Efisiensi Pembelajaran Bahasa Inggris Pada Siswa</t>
+  </si>
+  <si>
+    <t>Faktor Yang Mempengaruhi Perilaku Konsumen</t>
+  </si>
+  <si>
+    <t>Minat Menonton Film</t>
+  </si>
+  <si>
+    <t>Hubungan Consumer Relations</t>
+  </si>
+  <si>
+    <t>Kegiatan Employee Relations</t>
+  </si>
+  <si>
+    <t> Tingkat Keterdedahan pada Kegiatan MPR</t>
+  </si>
+  <si>
+    <t>giok.com</t>
+  </si>
+  <si>
+    <t>counter.com</t>
+  </si>
+  <si>
+    <t>konveksi.com</t>
+  </si>
+  <si>
+    <t>efk.com</t>
+  </si>
+  <si>
+    <t>app.com</t>
+  </si>
+  <si>
+    <t>rijndael.com</t>
+  </si>
+  <si>
+    <t>tts.com</t>
+  </si>
+  <si>
+    <t>kompeten.id</t>
+  </si>
+  <si>
+    <t>clone.uk</t>
+  </si>
+  <si>
+    <t>emote.go.id</t>
+  </si>
+  <si>
+    <t>bela.tk</t>
+  </si>
+  <si>
+    <t>kons.edu</t>
+  </si>
+  <si>
+    <t>koop.com</t>
+  </si>
+  <si>
+    <t>jigsaw.id</t>
+  </si>
+  <si>
+    <t>hitung.tk</t>
+  </si>
+  <si>
+    <t>dasar.edu</t>
+  </si>
+  <si>
+    <t>paya.com</t>
+  </si>
+  <si>
+    <t>struk.com</t>
+  </si>
+  <si>
+    <t>effe.com</t>
+  </si>
+  <si>
+    <t>jas.co.id</t>
+  </si>
+  <si>
+    <t>modal.com</t>
+  </si>
+  <si>
+    <t>IdTimeline</t>
+  </si>
+  <si>
+    <t>NamaEvent</t>
+  </si>
+  <si>
+    <t>Submit Judul</t>
+  </si>
+  <si>
+    <t>Submit Proposal</t>
+  </si>
+  <si>
+    <t>Pengumpulan Berkas</t>
+  </si>
+  <si>
+    <t>Sidang MKS</t>
+  </si>
+  <si>
+    <t>Batas Pengunggahan Nilai</t>
+  </si>
+  <si>
+    <t>Publikasi Nilai</t>
+  </si>
+  <si>
+    <t>Submit Draft Pertama</t>
+  </si>
+  <si>
+    <t>Submit Draft Kedua</t>
+  </si>
+  <si>
+    <t>Submit Draft Final</t>
+  </si>
+  <si>
+    <t>Evaluasi Final</t>
+  </si>
+  <si>
+    <t>2016-20-4</t>
+  </si>
+  <si>
+    <t>2016-13-4</t>
+  </si>
+  <si>
+    <t>2016-13-5</t>
+  </si>
+  <si>
+    <t>2016-13-6</t>
+  </si>
+  <si>
+    <t>2016-13-7</t>
+  </si>
+  <si>
+    <t>2016-13-8</t>
+  </si>
+  <si>
+    <t>2016-20-5</t>
+  </si>
+  <si>
+    <t>2016-20-6</t>
+  </si>
+  <si>
+    <t>2016-20-7</t>
+  </si>
+  <si>
+    <t>2016-20-3</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1693,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1347,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,6 +1757,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1676,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,7 +2122,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1710,11 +2130,20 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,12 +2152,209 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>102</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>106</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>108</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>109</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2016</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1737,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,42 +2503,2174 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>12345</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42431</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42436</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2014011201021940</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>12346</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42471</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42471</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2013031125041950</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>12347</v>
+      </c>
+      <c r="D7" s="8">
+        <v>42437</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42438</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2014020526061930</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>12348</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42467</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42467</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2014010622121970</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>12349</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42497</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42497</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2014020823111960</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>12350</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42527</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42527</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2015030111051980</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>12351</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42557</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42567</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2016030412121970</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>12352</v>
+      </c>
+      <c r="D12" s="9">
+        <v>42587</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42587</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2011021303051960</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>12353</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42617</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42627</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2012010530051950</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>12354</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42647</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42647</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2011030509091980</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>12355</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42677</v>
+      </c>
+      <c r="E15" s="8">
+        <v>42677</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2010020521111960</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>12356</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42707</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42707</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2009010526061930</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>12357</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42737</v>
+      </c>
+      <c r="E17" s="8">
+        <v>42737</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2008020531081940</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>12358</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42767</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42767</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2005030502021930</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>12359</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42797</v>
+      </c>
+      <c r="E19" s="8">
+        <v>42797</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2014030513041960</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>12360</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42827</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42847</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2015010517041950</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>12361</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42857</v>
+      </c>
+      <c r="E21" s="8">
+        <v>42857</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2007010524071980</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>12362</v>
+      </c>
+      <c r="D22" s="9">
+        <v>42887</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42887</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2016030525091980</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>12363</v>
+      </c>
+      <c r="D23" s="8">
+        <v>42917</v>
+      </c>
+      <c r="E23" s="8">
+        <v>42935</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2015020529101970</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>12364</v>
+      </c>
+      <c r="D24" s="9">
+        <v>42947</v>
+      </c>
+      <c r="E24" s="9">
+        <v>42947</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2011010501111950</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>12365</v>
+      </c>
+      <c r="D25" s="8">
+        <v>42977</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42977</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2011021303051960</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>12366</v>
+      </c>
+      <c r="D26" s="9">
+        <v>43007</v>
+      </c>
+      <c r="E26" s="9">
+        <v>43007</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2012010530051950</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>12367</v>
+      </c>
+      <c r="D27" s="8">
+        <v>43037</v>
+      </c>
+      <c r="E27" s="8">
+        <v>43037</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2011030509091980</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>12368</v>
+      </c>
+      <c r="D28" s="9">
+        <v>43067</v>
+      </c>
+      <c r="E28" s="9">
+        <v>43067</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2010020521111960</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>12369</v>
+      </c>
+      <c r="D29" s="8">
+        <v>43097</v>
+      </c>
+      <c r="E29" s="8">
+        <v>43097</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2009010526061930</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <v>12370</v>
+      </c>
+      <c r="D30" s="9">
+        <v>43127</v>
+      </c>
+      <c r="E30" s="9">
+        <v>43127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2008020531081940</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="7">
+        <v>12371</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43157</v>
+      </c>
+      <c r="E31" s="8">
+        <v>43159</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2014030513041960</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
+        <v>12372</v>
+      </c>
+      <c r="D32" s="9">
+        <v>43187</v>
+      </c>
+      <c r="E32" s="9">
+        <v>43187</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2015010517041950</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
+        <v>12373</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43217</v>
+      </c>
+      <c r="E33" s="8">
+        <v>43222</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2007010524071980</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
+        <v>12374</v>
+      </c>
+      <c r="D34" s="9">
+        <v>43247</v>
+      </c>
+      <c r="E34" s="9">
+        <v>43247</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2016030525091980</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>13346</v>
+      </c>
+      <c r="C5" s="1">
+        <v>201612001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42681</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1101</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>13347</v>
+      </c>
+      <c r="C6" s="1">
+        <v>201612002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42683</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1202</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>13348</v>
+      </c>
+      <c r="C7" s="1">
+        <v>201612003</v>
+      </c>
+      <c r="D7" s="8">
+        <v>42685</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1103</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>13349</v>
+      </c>
+      <c r="C8" s="1">
+        <v>201612004</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42687</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1101</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>13350</v>
+      </c>
+      <c r="C9" s="1">
+        <v>201612005</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42689</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1101</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>13351</v>
+      </c>
+      <c r="C10" s="1">
+        <v>201612006</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42691</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1202</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>13352</v>
+      </c>
+      <c r="C11" s="1">
+        <v>201612007</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42693</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1103</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>13353</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201612008</v>
+      </c>
+      <c r="D12" s="9">
+        <v>42695</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1301</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>13354</v>
+      </c>
+      <c r="C13" s="1">
+        <v>201612009</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42697</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1203</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>13355</v>
+      </c>
+      <c r="C14" s="1">
+        <v>201612010</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42699</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2401</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>13356</v>
+      </c>
+      <c r="C15" s="1">
+        <v>201612011</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42701</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2302</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>13357</v>
+      </c>
+      <c r="C16" s="1">
+        <v>201612012</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42703</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2501</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>13358</v>
+      </c>
+      <c r="C17" s="1">
+        <v>201612013</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42705</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2604</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>13359</v>
+      </c>
+      <c r="C18" s="1">
+        <v>201612014</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42707</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2201</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>13360</v>
+      </c>
+      <c r="C19" s="1">
+        <v>201612015</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42709</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3309</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>13361</v>
+      </c>
+      <c r="C20" s="1">
+        <v>201612016</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42711</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3102</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>13362</v>
+      </c>
+      <c r="C21" s="1">
+        <v>201612017</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42713</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1101</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>13363</v>
+      </c>
+      <c r="C22" s="1">
+        <v>201612018</v>
+      </c>
+      <c r="D22" s="9">
+        <v>42715</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1202</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>13364</v>
+      </c>
+      <c r="C23" s="1">
+        <v>201612019</v>
+      </c>
+      <c r="D23" s="8">
+        <v>42717</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1103</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>13365</v>
+      </c>
+      <c r="C24" s="1">
+        <v>201612020</v>
+      </c>
+      <c r="D24" s="9">
+        <v>42719</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1301</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>13366</v>
+      </c>
+      <c r="C25" s="1">
+        <v>201612021</v>
+      </c>
+      <c r="D25" s="8">
+        <v>42721</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1203</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>13367</v>
+      </c>
+      <c r="C26" s="1">
+        <v>201612022</v>
+      </c>
+      <c r="D26" s="9">
+        <v>42723</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2401</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>13368</v>
+      </c>
+      <c r="C27" s="1">
+        <v>201612023</v>
+      </c>
+      <c r="D27" s="8">
+        <v>42725</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2302</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>13369</v>
+      </c>
+      <c r="C28" s="1">
+        <v>201612024</v>
+      </c>
+      <c r="D28" s="9">
+        <v>42727</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2501</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>13370</v>
+      </c>
+      <c r="C29" s="1">
+        <v>201612025</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42729</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2604</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>13371</v>
+      </c>
+      <c r="C30" s="1">
+        <v>201612026</v>
+      </c>
+      <c r="D30" s="9">
+        <v>42731</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2201</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>13372</v>
+      </c>
+      <c r="C31" s="1">
+        <v>201612027</v>
+      </c>
+      <c r="D31" s="8">
+        <v>42733</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3309</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>13373</v>
+      </c>
+      <c r="C32" s="1">
+        <v>201612028</v>
+      </c>
+      <c r="D32" s="9">
+        <v>42735</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3102</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>13374</v>
+      </c>
+      <c r="C33" s="1">
+        <v>201612029</v>
+      </c>
+      <c r="D33" s="8">
+        <v>42737</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3205</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>13375</v>
+      </c>
+      <c r="C34" s="1">
+        <v>201612030</v>
+      </c>
+      <c r="D34" s="9">
+        <v>42739</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3202</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>11111</v>
+      </c>
+      <c r="C4" s="1">
+        <v>201612001</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>11112</v>
+      </c>
+      <c r="C5" s="1">
+        <v>201612002</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>11113</v>
+      </c>
+      <c r="C6" s="1">
+        <v>201612001</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>11114</v>
+      </c>
+      <c r="C7" s="1">
+        <v>201612002</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>11115</v>
+      </c>
+      <c r="C8" s="1">
+        <v>201612003</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>11116</v>
+      </c>
+      <c r="C9" s="1">
+        <v>201612004</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>11117</v>
+      </c>
+      <c r="C10" s="1">
+        <v>201612005</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>11118</v>
+      </c>
+      <c r="C11" s="1">
+        <v>201612006</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>11119</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201612007</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>11120</v>
+      </c>
+      <c r="C13" s="1">
+        <v>201612008</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>11121</v>
+      </c>
+      <c r="C14" s="1">
+        <v>201612009</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>11122</v>
+      </c>
+      <c r="C15" s="1">
+        <v>201612010</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>11123</v>
+      </c>
+      <c r="C16" s="1">
+        <v>201612011</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>11124</v>
+      </c>
+      <c r="C17" s="1">
+        <v>201612012</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>11125</v>
+      </c>
+      <c r="C18" s="1">
+        <v>201612013</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>11126</v>
+      </c>
+      <c r="C19" s="1">
+        <v>201612014</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>11127</v>
+      </c>
+      <c r="C20" s="1">
+        <v>201612015</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>11128</v>
+      </c>
+      <c r="C21" s="1">
+        <v>201612016</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>11129</v>
+      </c>
+      <c r="C22" s="1">
+        <v>201612017</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>11130</v>
+      </c>
+      <c r="C23" s="1">
+        <v>201612030</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>11131</v>
+      </c>
+      <c r="C24" s="1">
+        <v>201612019</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>11132</v>
+      </c>
+      <c r="C25" s="1">
+        <v>201612001</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>11133</v>
+      </c>
+      <c r="C26" s="1">
+        <v>201612002</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>11134</v>
+      </c>
+      <c r="C27" s="1">
+        <v>201612003</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>11135</v>
+      </c>
+      <c r="C28" s="1">
+        <v>201612004</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>11136</v>
+      </c>
+      <c r="C29" s="1">
+        <v>201612005</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>11137</v>
+      </c>
+      <c r="C30" s="1">
+        <v>201612006</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>11138</v>
+      </c>
+      <c r="C31" s="1">
+        <v>201612007</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>11139</v>
+      </c>
+      <c r="C32" s="1">
+        <v>201612008</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>11140</v>
+      </c>
+      <c r="C33" s="1">
+        <v>201612009</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>11141</v>
+      </c>
+      <c r="C34" s="1">
+        <v>201612010</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>11142</v>
+      </c>
+      <c r="C35" s="1">
+        <v>201612011</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>11143</v>
+      </c>
+      <c r="C36" s="1">
+        <v>201612012</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>11144</v>
+      </c>
+      <c r="C37" s="1">
+        <v>201612013</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>11145</v>
+      </c>
+      <c r="C38" s="1">
+        <v>201612014</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>11146</v>
+      </c>
+      <c r="C39" s="1">
+        <v>201612015</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>11147</v>
+      </c>
+      <c r="C40" s="1">
+        <v>201612016</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>11148</v>
+      </c>
+      <c r="C41" s="1">
+        <v>201612017</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>11149</v>
+      </c>
+      <c r="C42" s="1">
+        <v>201612018</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>11150</v>
+      </c>
+      <c r="C43" s="1">
+        <v>201612019</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
+        <v>11151</v>
+      </c>
+      <c r="C44" s="1">
+        <v>201612020</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>11152</v>
+      </c>
+      <c r="C45" s="1">
+        <v>201612021</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <v>11153</v>
+      </c>
+      <c r="C46" s="1">
+        <v>201612022</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
+        <v>11154</v>
+      </c>
+      <c r="C47" s="1">
+        <v>201612023</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>11155</v>
+      </c>
+      <c r="C48" s="1">
+        <v>201612024</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>11156</v>
+      </c>
+      <c r="C49" s="1">
+        <v>201612025</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>11157</v>
+      </c>
+      <c r="C50" s="1">
+        <v>201612026</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>11158</v>
+      </c>
+      <c r="C51" s="1">
+        <v>201612027</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>11159</v>
+      </c>
+      <c r="C52" s="1">
+        <v>201612028</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>11160</v>
+      </c>
+      <c r="C53" s="1">
+        <v>201612029</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1920,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,7 +4689,8 @@
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -3094,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4190,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4678,7 +7437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
